--- a/biology/Zoologie/Hoplocampe/Hoplocampe.xlsx
+++ b/biology/Zoologie/Hoplocampe/Hoplocampe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoplocampa
-Les hoplocampes[1] (Hoplocampa) forment un genre d'insectes hyménoptères de la famille des Tenthredinidae.
+Les hoplocampes (Hoplocampa) forment un genre d'insectes hyménoptères de la famille des Tenthredinidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (26 janv. 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 janv. 2017) :
 Hoplocampa alpina
 Hoplocampa ariae
 Hoplocampa brevis - Hoplocampe du poirier
@@ -530,7 +544,7 @@
 Hoplocampa plagiata
 Hoplocampa sinobirmana
 Hoplocampa testudinea - Hoplocampe du pommier
-Selon ITIS      (26 janv. 2017)[3] :
+Selon ITIS      (26 janv. 2017) :
 Hoplocampa cookei (Clarke)
 Hoplocampa testudinea (Klug)</t>
         </is>
@@ -560,11 +574,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond en général sur les fleurs.
 La larve (appelée "ver cordonnier" à cause de son orifice de pénétration dans les fruits, qui ressemble à un trou d'alêne) est une « fausse-chenille » qui se nourrit à l'intérieur du jeune fruit.
-La reproduction est généralement parthénogénétique. L'Hoplocampe jaune du prunier (Hoplocampa flava) est l'un des plus fréquents[4].
+La reproduction est généralement parthénogénétique. L'Hoplocampe jaune du prunier (Hoplocampa flava) est l'un des plus fréquents.
 </t>
         </is>
       </c>
@@ -593,7 +609,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès le départ de la végétation (10 à 15 jours avant la floraison), installer des bandes blanches engluées sur les arbres à une hauteur de 0,70 à 1 mètre. Lorsque les insectes sortent, ils croient qu'il s'agit des pétales de fleurs et viennent s'y coller.
 Idem pour la mouche de la cerise mais avec des bandes jaunes.
